--- a/res/DAS/MappedBackgroundBackgroundThingy.xlsx
+++ b/res/DAS/MappedBackgroundBackgroundThingy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Downloads\SpritesThingy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14536309-3A60-4151-9871-A37184DB99F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E65C18-620F-4B40-B4F5-D5C607D9ADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FBE290FB-650E-4331-9E1F-A1F964A03F74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBE290FB-650E-4331-9E1F-A1F964A03F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,149 +408,149 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
